--- a/intranet/src/main/resources/templates/excelFile/InVoice.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/InVoice.xlsx
@@ -5,30 +5,214 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E29128-BEA2-4BA4-98F3-2BC199022650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DED767-4F22-4169-8832-B107FF4386EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
   <sheets>
-    <sheet name="Booking Confirmation" sheetId="1" r:id="rId1"/>
+    <sheet name="250124(IKEA)_M1" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'250124(IKEA)_M1'!$A$1:$K$39</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Invoice</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice #</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea Corporate Housing Inc.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BILLTO:</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyeong-dong, 03181Jongno-gu,Seoul, South Korea</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Amount(USD)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Balance Due</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLEASE MAKE A PAYMENT TO(USD)</t>
+  </si>
+  <si>
+    <t>Beneficiary Name: Korea Corporate Housing</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beneficiary Account: 024-099981-56-00013</t>
+  </si>
+  <si>
+    <t>Bank Name : IBK Bank (INDUSTRIAL BANK OF KOREA)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Swift Code: IBKOKRSEXXX</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bank Branch: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IN SA DONG</t>
+    </r>
+  </si>
+  <si>
+    <t>REMARKS</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="[$-3009]dddd\,\ mmmm\ dd\,\ yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -41,15 +225,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AC3BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -57,18 +259,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="9" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -82,6 +401,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>799532</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64323</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>113108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEE6BD2-2EDE-7442-89BC-22B6D9097A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7759132" y="160459"/>
+          <a:ext cx="1474591" cy="587649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>678657</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29764</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F6D2F5-66B3-104F-A484-6FE399451480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7638257" y="178594"/>
+          <a:ext cx="1560907" cy="634999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,17 +792,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0C61EB-7882-3645-80E0-59504F7F329D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="131" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="10" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="39" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="41" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15" t="e">
+        <f>(G15-E15)*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="36" t="e">
+        <f>J26+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="19"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="31" t="e">
+        <f>SUM(J15:J23)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/intranet/src/main/resources/templates/excelFile/InVoice.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/InVoice.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DED767-4F22-4169-8832-B107FF4386EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83248E6F-46CA-425B-924E-8741BF408B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
   <sheets>
-    <sheet name="250124(IKEA)_M1" sheetId="7" r:id="rId1"/>
+    <sheet name="InVoice" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'250124(IKEA)_M1'!$A$1:$K$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">InVoice!$A$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -799,7 +799,7 @@
   <dimension ref="B2:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="131" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1002,10 +1002,7 @@
         <f>(G15-E15)*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M15" s="36" t="e">
-        <f>J26+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="M15" s="36"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
     </row>

--- a/intranet/src/main/resources/templates/excelFile/InVoice.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/InVoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83248E6F-46CA-425B-924E-8741BF408B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFBEEDC-DDBC-401F-A4BA-274EF131AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
@@ -798,8 +798,8 @@
   </sheetPr>
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="131" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="131" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -849,10 +849,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="H5" s="3"/>
@@ -874,10 +871,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" s="3"/>
@@ -919,19 +913,13 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="10" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="3"/>
-      <c r="H11" s="39" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H11" s="39"/>
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
     </row>
@@ -977,31 +965,17 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B15" s="41"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
-      <c r="E15" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G15" s="13"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="12">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15" t="e">
-        <f>(G15-E15)*#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="15"/>
       <c r="M15" s="36"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -1129,9 +1103,9 @@
       <c r="I26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="31" t="e">
+      <c r="J26" s="31">
         <f>SUM(J15:J23)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -1248,10 +1222,7 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1262,10 +1233,7 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
